--- a/Porewater report BH04.xlsx
+++ b/Porewater report BH04.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anrancheng/Documents/Code/NWMO/transport model with parameters from porewater report/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anrancheng/Documents/Code/NWMO/NWMO_He_model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C505B34-83B9-8545-B393-37191973772B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88ACEA42-7A2B-254B-AB71-4DDF852BDEBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17340" xr2:uid="{7C98B5C4-FA57-48F5-9D97-71E066B4AE5C}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17300" xr2:uid="{7C98B5C4-FA57-48F5-9D97-71E066B4AE5C}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="107">
   <si>
     <t>Sample</t>
   </si>
@@ -360,6 +360,15 @@
   </si>
   <si>
     <t>C/m</t>
+  </si>
+  <si>
+    <t>start age</t>
+  </si>
+  <si>
+    <t xml:space="preserve">time resolution </t>
+  </si>
+  <si>
+    <t>Ma</t>
   </si>
 </sst>
 </file>
@@ -878,10 +887,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6703E139-38B1-2A40-8725-6D36349AA5EE}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -934,6 +943,28 @@
       </c>
       <c r="C4" s="17" t="s">
         <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="20" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="20" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6">
+        <v>0.1</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
